--- a/biology/Zoologie/Anuroctonus/Anuroctonus.xlsx
+++ b/biology/Zoologie/Anuroctonus/Anuroctonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anuroctonus, unique représentant de la famille des Anuroctonidae, est un genre de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, en Idaho, au Nevada et en Utah et au Mexique en Basse-Californie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, en Idaho, au Nevada et en Utah et au Mexique en Basse-Californie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (28/07/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (28/07/2023) :
 Anuroctonus pococki Soleglad &amp; Fet, 2004
 Anuroctonus phaiodactylus (Wood, 1863)</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1893 dans les Iuridae. Il est placé dans les Chactidae par Soleglad et Fet en 2003[3] puis dans les Anuroctonidae par Santibáñez-López, Ojanguren-Affilastro, Graham et Sharma en 2023[4].
-Oncocentrus[5] a été placé en synonymie par Kraepelin en 1899[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1893 dans les Iuridae. Il est placé dans les Chactidae par Soleglad et Fet en 2003 puis dans les Anuroctonidae par Santibáñez-López, Ojanguren-Affilastro, Graham et Sharma en 2023.
+Oncocentrus a été placé en synonymie par Kraepelin en 1899.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1893 : « Notes on the classification of scorpions, followed by some observations upon synonymy, with descriptions of new genera and species. » Annals and Magazine of Natural History, sér. 6, vol. 12, p. 303–330 (texte intégral).
 Santibáñez-López, Ojanguren-Affilastro, Graham &amp; Sharma, 2023 : « Congruence between ultraconserved element-based matrices and phylotranscriptomic datasets in the scorpion Tree of Life. » Cladistics, p. 1–15.</t>
